--- a/aguas_bajas_t4/sensor_deployment/sensor_deployment_t4.xlsx
+++ b/aguas_bajas_t4/sensor_deployment/sensor_deployment_t4.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/lacie_macosx/Dropbox/PostDoc/iavh/ANH-PPII/Análisis_paisajes_sonoros/caracterizacion_paisajes_sonoros_ppii/aguas_bajas_t4/sensor_deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C51AD5-63AF-8645-9AB5-D9227FF2CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96040CD0-48B6-7945-864F-367C709280B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17140" yWindow="3200" windowWidth="26840" windowHeight="15940" xr2:uid="{E9E00A1C-96C6-5743-868D-829A67968692}"/>
+    <workbookView xWindow="9900" yWindow="5520" windowWidth="26840" windowHeight="15940" xr2:uid="{E9E00A1C-96C6-5743-868D-829A67968692}"/>
   </bookViews>
   <sheets>
     <sheet name="t4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'t4'!$D$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'t4'!$D$1:$D$104</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="600">
   <si>
     <t>Fecha</t>
   </si>
@@ -273,9 +273,6 @@
     <t>file:///data/user/0/com.luckydroid.droidbase/files/files/665198500/2022-07-27 09.58.24.jpg</t>
   </si>
   <si>
-    <t>G6594 mini bat, G6600 micro</t>
-  </si>
-  <si>
     <t>21.5</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>G014</t>
   </si>
   <si>
-    <t xml:space="preserve">No estÃ¡ </t>
-  </si>
-  <si>
     <t>47.9</t>
   </si>
   <si>
@@ -1410,9 +1404,6 @@
     <t>file:///data/user/0/com.luckydroid.droidbase/files/files/665198500/2022-07-20 08.04.30.jpg</t>
   </si>
   <si>
-    <t>G6585mini, G6599micro"</t>
-  </si>
-  <si>
     <t>28.1</t>
   </si>
   <si>
@@ -1506,9 +1497,6 @@
     <t>file:///data/user/0/com.luckydroid.droidbase/files/files/665198500/2022-07-18 14.13.17.jpg</t>
   </si>
   <si>
-    <t>G6604 micro, G6597mini"</t>
-  </si>
-  <si>
     <t>48.46</t>
   </si>
   <si>
@@ -1828,6 +1816,27 @@
   </si>
   <si>
     <t>ANH_066</t>
+  </si>
+  <si>
+    <t>G6585</t>
+  </si>
+  <si>
+    <t>G6599</t>
+  </si>
+  <si>
+    <t>G6594</t>
+  </si>
+  <si>
+    <t>G6600</t>
+  </si>
+  <si>
+    <t>G6604</t>
+  </si>
+  <si>
+    <t>G6597</t>
+  </si>
+  <si>
+    <t>G092</t>
   </si>
 </sst>
 </file>
@@ -2201,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE6C96F-2AF5-ED4F-A503-ABE4C972F69C}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2217,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2267,31 +2276,31 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>371</v>
-      </c>
-      <c r="E2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>373</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -2303,7 +2312,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>16</v>
@@ -2317,43 +2326,43 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
         <v>398</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H3" t="s">
-        <v>399</v>
-      </c>
-      <c r="I3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" t="s">
-        <v>302</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>400</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>16</v>
@@ -2367,13 +2376,13 @@
         <v>0.44305555555555554</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
@@ -2382,28 +2391,28 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
         <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>97</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>16</v>
@@ -2417,31 +2426,31 @@
         <v>0.41111111111111115</v>
       </c>
       <c r="C5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>363</v>
-      </c>
-      <c r="E5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>365</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -2453,7 +2462,7 @@
         <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>16</v>
@@ -2467,13 +2476,13 @@
         <v>0.4680555555555555</v>
       </c>
       <c r="C6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>19</v>
@@ -2482,16 +2491,16 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -2503,7 +2512,7 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>16</v>
@@ -2517,43 +2526,43 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="C7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K7" t="s">
         <v>484</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
         <v>485</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" t="s">
-        <v>486</v>
-      </c>
-      <c r="K7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>488</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>16</v>
@@ -2567,10 +2576,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2617,43 +2626,43 @@
         <v>0.3354166666666667</v>
       </c>
       <c r="C9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>411</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
         <v>412</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
         <v>413</v>
-      </c>
-      <c r="H9" t="s">
-        <v>343</v>
-      </c>
-      <c r="I9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>414</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>415</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>16</v>
@@ -2667,7 +2676,7 @@
         <v>0.60625000000000007</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -2717,13 +2726,13 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="C11" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>19</v>
@@ -2732,28 +2741,28 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
         <v>223</v>
-      </c>
-      <c r="J11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" t="s">
-        <v>224</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>225</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>16</v>
@@ -2767,43 +2776,43 @@
         <v>0.47430555555555554</v>
       </c>
       <c r="C12" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>443</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
         <v>444</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>445</v>
-      </c>
-      <c r="H12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s">
-        <v>214</v>
-      </c>
-      <c r="K12" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" t="s">
-        <v>446</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>16</v>
@@ -2817,28 +2826,28 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="C13" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>236</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>238</v>
       </c>
-      <c r="H13" t="s">
-        <v>239</v>
-      </c>
-      <c r="I13" t="s">
-        <v>240</v>
-      </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
         <v>31</v>
@@ -2853,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>16</v>
@@ -2867,10 +2876,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C14" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2917,31 +2926,31 @@
         <v>0.50277777777777777</v>
       </c>
       <c r="C15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>425</v>
-      </c>
-      <c r="E15" t="s">
-        <v>426</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>427</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
@@ -2953,7 +2962,7 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>16</v>
@@ -2967,31 +2976,31 @@
         <v>0.3354166666666667</v>
       </c>
       <c r="C16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>453</v>
       </c>
-      <c r="E16" t="s">
-        <v>454</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>455</v>
-      </c>
       <c r="H16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
         <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -3003,7 +3012,7 @@
         <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>16</v>
@@ -3017,7 +3026,7 @@
         <v>0.42986111111111108</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
@@ -3067,43 +3076,43 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="C18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
         <v>171</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>173</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" t="s">
         <v>174</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
         <v>175</v>
-      </c>
-      <c r="J18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" t="s">
-        <v>176</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" t="s">
-        <v>177</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>16</v>
@@ -3117,31 +3126,31 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="C19" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>254</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" t="s">
-        <v>257</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
@@ -3153,7 +3162,7 @@
         <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>16</v>
@@ -3167,7 +3176,7 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -3217,43 +3226,43 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="C21" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
         <v>247</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
         <v>248</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" t="s">
         <v>249</v>
       </c>
-      <c r="H21" t="s">
-        <v>202</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
         <v>250</v>
-      </c>
-      <c r="J21" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" t="s">
-        <v>251</v>
-      </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" t="s">
-        <v>252</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>16</v>
@@ -3267,43 +3276,43 @@
         <v>0.4694444444444445</v>
       </c>
       <c r="C22" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
         <v>304</v>
       </c>
-      <c r="E22" t="s">
+      <c r="J22" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
         <v>306</v>
-      </c>
-      <c r="J22" t="s">
-        <v>307</v>
-      </c>
-      <c r="K22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" t="s">
-        <v>308</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>16</v>
@@ -3317,28 +3326,28 @@
         <v>0.45763888888888887</v>
       </c>
       <c r="C23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
         <v>345</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>346</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>347</v>
-      </c>
-      <c r="H23" t="s">
-        <v>348</v>
       </c>
       <c r="I23" t="s">
         <v>43</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s">
         <v>31</v>
@@ -3353,7 +3362,7 @@
         <v>25</v>
       </c>
       <c r="O23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>16</v>
@@ -3367,43 +3376,43 @@
         <v>0.45</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24" t="s">
         <v>314</v>
       </c>
-      <c r="E24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
+        <v>294</v>
+      </c>
+      <c r="J24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
         <v>315</v>
-      </c>
-      <c r="H24" t="s">
-        <v>316</v>
-      </c>
-      <c r="I24" t="s">
-        <v>296</v>
-      </c>
-      <c r="J24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" t="s">
-        <v>317</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>16</v>
@@ -3417,43 +3426,43 @@
         <v>0.3347222222222222</v>
       </c>
       <c r="C25" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
         <v>189</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s">
         <v>191</v>
-      </c>
-      <c r="H25" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" t="s">
-        <v>192</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" t="s">
-        <v>193</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>16</v>
@@ -3467,7 +3476,7 @@
         <v>0.41388888888888892</v>
       </c>
       <c r="C26" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D26" t="s">
         <v>72</v>
@@ -3517,43 +3526,43 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D27" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
         <v>389</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>390</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" t="s">
         <v>391</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
         <v>392</v>
-      </c>
-      <c r="I27" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" t="s">
-        <v>393</v>
-      </c>
-      <c r="K27" t="s">
-        <v>219</v>
-      </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" t="s">
-        <v>394</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>16</v>
@@ -3567,7 +3576,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="C28" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -3617,10 +3626,10 @@
         <v>0.5625</v>
       </c>
       <c r="C29" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3667,31 +3676,31 @@
         <v>0.36249999999999999</v>
       </c>
       <c r="C30" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
@@ -3703,7 +3712,7 @@
         <v>25</v>
       </c>
       <c r="O30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>16</v>
@@ -3717,7 +3726,7 @@
         <v>0.39861111111111108</v>
       </c>
       <c r="C31" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
@@ -3767,43 +3776,43 @@
         <v>0.41041666666666665</v>
       </c>
       <c r="C32" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" t="s">
         <v>288</v>
-      </c>
-      <c r="K32" t="s">
-        <v>289</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" t="s">
-        <v>290</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>16</v>
@@ -3817,25 +3826,25 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
         <v>146</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>148</v>
-      </c>
-      <c r="H33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" t="s">
-        <v>150</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
@@ -3853,7 +3862,7 @@
         <v>25</v>
       </c>
       <c r="O33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>16</v>
@@ -3867,43 +3876,43 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="C34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E34" t="s">
+        <v>428</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
         <v>429</v>
-      </c>
-      <c r="E34" t="s">
-        <v>430</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>431</v>
       </c>
       <c r="H34" t="s">
         <v>31</v>
       </c>
       <c r="I34" t="s">
+        <v>430</v>
+      </c>
+      <c r="J34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34" t="s">
+        <v>431</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" t="s">
         <v>432</v>
-      </c>
-      <c r="J34" t="s">
-        <v>182</v>
-      </c>
-      <c r="K34" t="s">
-        <v>433</v>
-      </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" t="s">
-        <v>434</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>16</v>
@@ -3917,43 +3926,43 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="C35" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E35" t="s">
+        <v>400</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="s">
+        <v>351</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
         <v>401</v>
       </c>
-      <c r="E35" t="s">
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" t="s">
         <v>402</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" t="s">
-        <v>353</v>
-      </c>
-      <c r="J35" t="s">
-        <v>296</v>
-      </c>
-      <c r="K35" t="s">
-        <v>403</v>
-      </c>
-      <c r="L35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" t="s">
-        <v>404</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>16</v>
@@ -3967,43 +3976,43 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="C36" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D36" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>276</v>
+      </c>
+      <c r="H36" t="s">
         <v>277</v>
       </c>
-      <c r="E36" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" t="s">
         <v>278</v>
-      </c>
-      <c r="H36" t="s">
-        <v>279</v>
-      </c>
-      <c r="I36" t="s">
-        <v>224</v>
-      </c>
-      <c r="J36" t="s">
-        <v>175</v>
-      </c>
-      <c r="K36" t="s">
-        <v>275</v>
-      </c>
-      <c r="L36" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" t="s">
-        <v>280</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>16</v>
@@ -4017,31 +4026,31 @@
         <v>0.41736111111111113</v>
       </c>
       <c r="C37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I37" t="s">
         <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
@@ -4053,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="O37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>16</v>
@@ -4067,43 +4076,43 @@
         <v>0.32083333333333336</v>
       </c>
       <c r="C38" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
         <v>105</v>
-      </c>
-      <c r="E38" t="s">
-        <v>106</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
       <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" t="s">
         <v>107</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>108</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>109</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>110</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" t="s">
         <v>111</v>
-      </c>
-      <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" t="s">
-        <v>112</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>16</v>
@@ -4117,43 +4126,43 @@
         <v>0.49861111111111112</v>
       </c>
       <c r="C39" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D39" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
         <v>340</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" t="s">
         <v>341</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="K39" t="s">
+        <v>261</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" t="s">
         <v>342</v>
-      </c>
-      <c r="H39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" t="s">
-        <v>168</v>
-      </c>
-      <c r="J39" t="s">
-        <v>343</v>
-      </c>
-      <c r="K39" t="s">
-        <v>263</v>
-      </c>
-      <c r="L39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" t="s">
-        <v>344</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>16</v>
@@ -4167,22 +4176,22 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C40" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D40" t="s">
+        <v>383</v>
+      </c>
+      <c r="E40" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
         <v>385</v>
       </c>
-      <c r="E40" t="s">
-        <v>386</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>387</v>
-      </c>
       <c r="H40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -4191,7 +4200,7 @@
         <v>31</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
@@ -4203,7 +4212,7 @@
         <v>25</v>
       </c>
       <c r="O40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>16</v>
@@ -4217,28 +4226,28 @@
         <v>0.39027777777777778</v>
       </c>
       <c r="C41" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D41" t="s">
+        <v>365</v>
+      </c>
+      <c r="E41" t="s">
+        <v>366</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
         <v>367</v>
       </c>
-      <c r="E41" t="s">
-        <v>368</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>369</v>
-      </c>
       <c r="H41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K41" t="s">
         <v>67</v>
@@ -4253,7 +4262,7 @@
         <v>25</v>
       </c>
       <c r="O41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>16</v>
@@ -4267,43 +4276,43 @@
         <v>0.41736111111111113</v>
       </c>
       <c r="C42" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
         <v>298</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" t="s">
         <v>299</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>300</v>
       </c>
-      <c r="H42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
+        <v>222</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" t="s">
         <v>301</v>
-      </c>
-      <c r="J42" t="s">
-        <v>302</v>
-      </c>
-      <c r="K42" t="s">
-        <v>224</v>
-      </c>
-      <c r="L42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" t="s">
-        <v>303</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>16</v>
@@ -4317,10 +4326,10 @@
         <v>0.53402777777777777</v>
       </c>
       <c r="C43" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D43" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4367,43 +4376,43 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="C44" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D44" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" t="s">
+        <v>354</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
         <v>355</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" t="s">
+        <v>232</v>
+      </c>
+      <c r="K44" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" t="s">
         <v>356</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>357</v>
-      </c>
-      <c r="H44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" t="s">
-        <v>156</v>
-      </c>
-      <c r="J44" t="s">
-        <v>234</v>
-      </c>
-      <c r="K44" t="s">
-        <v>83</v>
-      </c>
-      <c r="L44" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" t="s">
-        <v>358</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>16</v>
@@ -4417,7 +4426,7 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="C45" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -4467,31 +4476,31 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K46" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L46" t="s">
         <v>25</v>
@@ -4503,7 +4512,7 @@
         <v>25</v>
       </c>
       <c r="O46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>16</v>
@@ -4517,7 +4526,7 @@
         <v>0.48472222222222222</v>
       </c>
       <c r="C47" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -4567,43 +4576,43 @@
         <v>0.45</v>
       </c>
       <c r="C48" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
         <v>194</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="K48" t="s">
         <v>196</v>
       </c>
-      <c r="H48" t="s">
-        <v>134</v>
-      </c>
-      <c r="I48" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" t="s">
         <v>197</v>
-      </c>
-      <c r="K48" t="s">
-        <v>198</v>
-      </c>
-      <c r="L48" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" t="s">
-        <v>199</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>16</v>
@@ -4617,31 +4626,31 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="C49" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D49" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" t="s">
+        <v>325</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
         <v>326</v>
-      </c>
-      <c r="E49" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>328</v>
       </c>
       <c r="H49" t="s">
         <v>39</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s">
         <v>25</v>
@@ -4653,7 +4662,7 @@
         <v>25</v>
       </c>
       <c r="O49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>16</v>
@@ -4667,31 +4676,31 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="C50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D50" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E50" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I50" t="s">
         <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L50" t="s">
         <v>25</v>
@@ -4703,7 +4712,7 @@
         <v>25</v>
       </c>
       <c r="O50" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>16</v>
@@ -4717,10 +4726,10 @@
         <v>0.375</v>
       </c>
       <c r="C51" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4767,28 +4776,28 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="C52" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
         <v>139</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>140</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>142</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
-      </c>
-      <c r="J52" t="s">
-        <v>144</v>
       </c>
       <c r="K52" t="s">
         <v>75</v>
@@ -4803,7 +4812,7 @@
         <v>25</v>
       </c>
       <c r="O52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>16</v>
@@ -4817,22 +4826,22 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="C53" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D53" t="s">
+        <v>473</v>
+      </c>
+      <c r="E53" t="s">
+        <v>474</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>475</v>
+      </c>
+      <c r="H53" t="s">
         <v>476</v>
-      </c>
-      <c r="E53" t="s">
-        <v>477</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>478</v>
-      </c>
-      <c r="H53" t="s">
-        <v>479</v>
       </c>
       <c r="I53" t="s">
         <v>46</v>
@@ -4841,7 +4850,7 @@
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s">
         <v>25</v>
@@ -4853,7 +4862,7 @@
         <v>25</v>
       </c>
       <c r="O53" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>16</v>
@@ -4867,10 +4876,10 @@
         <v>0.47361111111111115</v>
       </c>
       <c r="C54" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D54" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
         <v>39</v>
@@ -4879,19 +4888,19 @@
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H54" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
       </c>
       <c r="K54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L54" t="s">
         <v>25</v>
@@ -4903,7 +4912,7 @@
         <v>25</v>
       </c>
       <c r="O54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>16</v>
@@ -4917,10 +4926,10 @@
         <v>0.38125000000000003</v>
       </c>
       <c r="C55" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D55" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E55" t="s">
         <v>31</v>
@@ -4929,10 +4938,10 @@
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" t="s">
         <v>61</v>
@@ -4941,7 +4950,7 @@
         <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L55" t="s">
         <v>25</v>
@@ -4953,7 +4962,7 @@
         <v>25</v>
       </c>
       <c r="O55" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>16</v>
@@ -4967,7 +4976,7 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>14</v>
@@ -5017,28 +5026,28 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="C57" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
         <v>164</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>165</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>166</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>167</v>
-      </c>
-      <c r="I57" t="s">
-        <v>168</v>
-      </c>
-      <c r="J57" t="s">
-        <v>169</v>
       </c>
       <c r="K57" t="s">
         <v>31</v>
@@ -5053,7 +5062,7 @@
         <v>25</v>
       </c>
       <c r="O57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>16</v>
@@ -5067,25 +5076,25 @@
         <v>0.36319444444444443</v>
       </c>
       <c r="C58" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
         <v>309</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>310</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>311</v>
-      </c>
-      <c r="H58" t="s">
-        <v>312</v>
-      </c>
       <c r="I58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s">
         <v>22</v>
@@ -5103,7 +5112,7 @@
         <v>25</v>
       </c>
       <c r="O58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>16</v>
@@ -5117,25 +5126,25 @@
         <v>0.32222222222222224</v>
       </c>
       <c r="C59" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D59" t="s">
+        <v>445</v>
+      </c>
+      <c r="E59" t="s">
+        <v>446</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
         <v>447</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59" t="s">
         <v>448</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>449</v>
-      </c>
-      <c r="H59" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" t="s">
-        <v>450</v>
       </c>
       <c r="J59" t="s">
         <v>32</v>
@@ -5153,7 +5162,7 @@
         <v>25</v>
       </c>
       <c r="O59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>16</v>
@@ -5167,10 +5176,10 @@
         <v>0.56682870370370375</v>
       </c>
       <c r="C60" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D60" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5217,28 +5226,28 @@
         <v>0.41111111111111115</v>
       </c>
       <c r="C61" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" t="s">
+        <v>210</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
         <v>211</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>212</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H61" t="s">
-        <v>214</v>
-      </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K61" t="s">
         <v>44</v>
@@ -5253,7 +5262,7 @@
         <v>25</v>
       </c>
       <c r="O61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>16</v>
@@ -5267,31 +5276,31 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="C62" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D62" t="s">
+        <v>437</v>
+      </c>
+      <c r="E62" t="s">
+        <v>438</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
         <v>439</v>
       </c>
-      <c r="E62" t="s">
-        <v>440</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>441</v>
-      </c>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
         <v>31</v>
       </c>
       <c r="J62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L62" t="s">
         <v>25</v>
@@ -5303,7 +5312,7 @@
         <v>25</v>
       </c>
       <c r="O62" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>16</v>
@@ -5317,25 +5326,25 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C63" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>184</v>
+      </c>
+      <c r="H63" t="s">
         <v>242</v>
       </c>
-      <c r="E63" t="s">
+      <c r="I63" t="s">
         <v>243</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>186</v>
-      </c>
-      <c r="H63" t="s">
-        <v>244</v>
-      </c>
-      <c r="I63" t="s">
-        <v>245</v>
       </c>
       <c r="J63" t="s">
         <v>31</v>
@@ -5353,7 +5362,7 @@
         <v>25</v>
       </c>
       <c r="O63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>16</v>
@@ -5367,22 +5376,22 @@
         <v>0.45</v>
       </c>
       <c r="C64" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
         <v>216</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>217</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>218</v>
-      </c>
-      <c r="H64" t="s">
-        <v>219</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -5403,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="O64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>16</v>
@@ -5417,25 +5426,25 @@
         <v>0.40069444444444446</v>
       </c>
       <c r="C65" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D65" t="s">
+        <v>374</v>
+      </c>
+      <c r="E65" t="s">
+        <v>375</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>200</v>
+      </c>
+      <c r="I65" t="s">
         <v>376</v>
-      </c>
-      <c r="E65" t="s">
-        <v>377</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>80</v>
-      </c>
-      <c r="H65" t="s">
-        <v>202</v>
-      </c>
-      <c r="I65" t="s">
-        <v>378</v>
       </c>
       <c r="J65" t="s">
         <v>75</v>
@@ -5453,7 +5462,7 @@
         <v>25</v>
       </c>
       <c r="O65" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P65" s="5" t="s">
         <v>16</v>
@@ -5467,10 +5476,10 @@
         <v>0.39305555555555555</v>
       </c>
       <c r="C66" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5517,43 +5526,43 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="C67" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" t="s">
         <v>118</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>120</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>121</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+      <c r="K67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67" t="s">
         <v>122</v>
-      </c>
-      <c r="J67" t="s">
-        <v>103</v>
-      </c>
-      <c r="K67" t="s">
-        <v>101</v>
-      </c>
-      <c r="L67" t="s">
-        <v>25</v>
-      </c>
-      <c r="M67" t="s">
-        <v>25</v>
-      </c>
-      <c r="N67" t="s">
-        <v>25</v>
-      </c>
-      <c r="O67" t="s">
-        <v>123</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>16</v>
@@ -5567,43 +5576,43 @@
         <v>0.39097222222222222</v>
       </c>
       <c r="C68" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D68" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
         <v>260</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>261</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="I68" t="s">
+        <v>172</v>
+      </c>
+      <c r="J68" t="s">
         <v>262</v>
       </c>
-      <c r="H68" t="s">
+      <c r="K68" t="s">
         <v>263</v>
       </c>
-      <c r="I68" t="s">
-        <v>174</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" t="s">
+        <v>25</v>
+      </c>
+      <c r="O68" t="s">
         <v>264</v>
-      </c>
-      <c r="K68" t="s">
-        <v>265</v>
-      </c>
-      <c r="L68" t="s">
-        <v>25</v>
-      </c>
-      <c r="M68" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" t="s">
-        <v>25</v>
-      </c>
-      <c r="O68" t="s">
-        <v>266</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>16</v>
@@ -5617,31 +5626,31 @@
         <v>0.44930555555555557</v>
       </c>
       <c r="C69" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
         <v>152</v>
-      </c>
-      <c r="E69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>154</v>
       </c>
       <c r="H69" t="s">
         <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L69" t="s">
         <v>25</v>
@@ -5653,7 +5662,7 @@
         <v>25</v>
       </c>
       <c r="O69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>16</v>
@@ -5667,43 +5676,43 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="C70" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
         <v>178</v>
-      </c>
-      <c r="E70" t="s">
-        <v>179</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>180</v>
       </c>
       <c r="H70" t="s">
         <v>67</v>
       </c>
       <c r="I70" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" t="s">
+        <v>82</v>
+      </c>
+      <c r="K70" t="s">
+        <v>180</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O70" t="s">
         <v>181</v>
-      </c>
-      <c r="J70" t="s">
-        <v>83</v>
-      </c>
-      <c r="K70" t="s">
-        <v>182</v>
-      </c>
-      <c r="L70" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" t="s">
-        <v>25</v>
-      </c>
-      <c r="O70" t="s">
-        <v>183</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>16</v>
@@ -5717,28 +5726,28 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="C71" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
         <v>184</v>
       </c>
-      <c r="E71" t="s">
-        <v>185</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>186</v>
-      </c>
       <c r="H71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I71" t="s">
         <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K71" t="s">
         <v>22</v>
@@ -5753,7 +5762,7 @@
         <v>25</v>
       </c>
       <c r="O71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>16</v>
@@ -5767,13 +5776,13 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="C72" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E72" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>19</v>
@@ -5782,13 +5791,13 @@
         <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K72" t="s">
         <v>70</v>
@@ -5803,7 +5812,7 @@
         <v>25</v>
       </c>
       <c r="O72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>16</v>
@@ -5817,43 +5826,43 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="C73" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
         <v>85</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>87</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s">
         <v>88</v>
       </c>
-      <c r="I73" t="s">
-        <v>83</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>89</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O73" t="s">
         <v>90</v>
-      </c>
-      <c r="L73" t="s">
-        <v>25</v>
-      </c>
-      <c r="M73" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" t="s">
-        <v>91</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>16</v>
@@ -5867,43 +5876,43 @@
         <v>0.38472222222222219</v>
       </c>
       <c r="C74" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D74" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E74" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J74" t="s">
+        <v>321</v>
+      </c>
+      <c r="K74" t="s">
+        <v>322</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74" t="s">
         <v>323</v>
-      </c>
-      <c r="K74" t="s">
-        <v>324</v>
-      </c>
-      <c r="L74" t="s">
-        <v>25</v>
-      </c>
-      <c r="M74" t="s">
-        <v>25</v>
-      </c>
-      <c r="N74" t="s">
-        <v>25</v>
-      </c>
-      <c r="O74" t="s">
-        <v>325</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>16</v>
@@ -5917,43 +5926,43 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="C75" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
         <v>158</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
+        <v>153</v>
+      </c>
+      <c r="K75" t="s">
         <v>160</v>
       </c>
-      <c r="H75" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" t="s">
+        <v>25</v>
+      </c>
+      <c r="O75" t="s">
         <v>161</v>
-      </c>
-      <c r="J75" t="s">
-        <v>155</v>
-      </c>
-      <c r="K75" t="s">
-        <v>162</v>
-      </c>
-      <c r="L75" t="s">
-        <v>25</v>
-      </c>
-      <c r="M75" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" t="s">
-        <v>25</v>
-      </c>
-      <c r="O75" t="s">
-        <v>163</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>16</v>
@@ -5967,13 +5976,13 @@
         <v>0.3743055555555555</v>
       </c>
       <c r="C76" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>19</v>
@@ -5982,13 +5991,13 @@
         <v>29</v>
       </c>
       <c r="H76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I76" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J76" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K76" t="s">
         <v>45</v>
@@ -6003,7 +6012,7 @@
         <v>25</v>
       </c>
       <c r="O76" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>16</v>
@@ -6017,43 +6026,43 @@
         <v>0.34652777777777777</v>
       </c>
       <c r="C77" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D77" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" t="s">
+        <v>272</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
+        <v>236</v>
+      </c>
+      <c r="H77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I77" t="s">
         <v>273</v>
       </c>
-      <c r="E77" t="s">
+      <c r="J77" t="s">
+        <v>82</v>
+      </c>
+      <c r="K77" t="s">
+        <v>180</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" t="s">
         <v>274</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>238</v>
-      </c>
-      <c r="H77" t="s">
-        <v>142</v>
-      </c>
-      <c r="I77" t="s">
-        <v>275</v>
-      </c>
-      <c r="J77" t="s">
-        <v>83</v>
-      </c>
-      <c r="K77" t="s">
-        <v>182</v>
-      </c>
-      <c r="L77" t="s">
-        <v>25</v>
-      </c>
-      <c r="M77" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77" t="s">
-        <v>25</v>
-      </c>
-      <c r="O77" t="s">
-        <v>276</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>16</v>
@@ -6067,31 +6076,31 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="C78" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D78" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" t="s">
+        <v>349</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>184</v>
+      </c>
+      <c r="H78" t="s">
         <v>350</v>
-      </c>
-      <c r="E78" t="s">
-        <v>351</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>186</v>
-      </c>
-      <c r="H78" t="s">
-        <v>352</v>
       </c>
       <c r="I78" t="s">
         <v>43</v>
       </c>
       <c r="J78" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K78" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L78" t="s">
         <v>25</v>
@@ -6103,7 +6112,7 @@
         <v>25</v>
       </c>
       <c r="O78" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>16</v>
@@ -6117,43 +6126,43 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="C79" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
         <v>226</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
+        <v>93</v>
+      </c>
+      <c r="I79" t="s">
         <v>227</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
+        <v>159</v>
+      </c>
+      <c r="K79" t="s">
         <v>228</v>
       </c>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>25</v>
+      </c>
+      <c r="O79" t="s">
         <v>229</v>
-      </c>
-      <c r="J79" t="s">
-        <v>161</v>
-      </c>
-      <c r="K79" t="s">
-        <v>230</v>
-      </c>
-      <c r="L79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O79" t="s">
-        <v>231</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>16</v>
@@ -6167,13 +6176,13 @@
         <v>0.34652777777777777</v>
       </c>
       <c r="C80" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D80" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E80" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>19</v>
@@ -6182,7 +6191,7 @@
         <v>29</v>
       </c>
       <c r="H80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
@@ -6191,7 +6200,7 @@
         <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L80" t="s">
         <v>25</v>
@@ -6203,7 +6212,7 @@
         <v>25</v>
       </c>
       <c r="O80" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>16</v>
@@ -6217,31 +6226,31 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="C81" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D81" t="s">
+        <v>433</v>
+      </c>
+      <c r="E81" t="s">
+        <v>434</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s">
         <v>435</v>
-      </c>
-      <c r="E81" t="s">
-        <v>436</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>437</v>
       </c>
       <c r="H81" t="s">
         <v>43</v>
       </c>
       <c r="I81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L81" t="s">
         <v>25</v>
@@ -6253,7 +6262,7 @@
         <v>25</v>
       </c>
       <c r="O81" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>16</v>
@@ -6267,10 +6276,10 @@
         <v>0.42986111111111108</v>
       </c>
       <c r="C82" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E82" s="7">
         <v>30561</v>
@@ -6279,31 +6288,31 @@
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" t="s">
+        <v>93</v>
+      </c>
+      <c r="J82" t="s">
         <v>114</v>
       </c>
-      <c r="I82" t="s">
-        <v>94</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>115</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O82" t="s">
         <v>116</v>
-      </c>
-      <c r="L82" t="s">
-        <v>25</v>
-      </c>
-      <c r="M82" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82" t="s">
-        <v>25</v>
-      </c>
-      <c r="O82" t="s">
-        <v>117</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>16</v>
@@ -6317,10 +6326,10 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D83" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -6367,22 +6376,22 @@
         <v>0.54027777777777775</v>
       </c>
       <c r="C84" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D84" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I84" t="s">
         <v>43</v>
@@ -6391,7 +6400,7 @@
         <v>44</v>
       </c>
       <c r="K84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L84" t="s">
         <v>25</v>
@@ -6403,7 +6412,7 @@
         <v>25</v>
       </c>
       <c r="O84" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>16</v>
@@ -6417,31 +6426,31 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="C85" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D85" t="s">
+        <v>291</v>
+      </c>
+      <c r="E85" t="s">
+        <v>292</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
         <v>293</v>
-      </c>
-      <c r="E85" t="s">
-        <v>294</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>295</v>
       </c>
       <c r="H85" t="s">
         <v>43</v>
       </c>
       <c r="I85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L85" t="s">
         <v>25</v>
@@ -6453,7 +6462,7 @@
         <v>25</v>
       </c>
       <c r="O85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>16</v>
@@ -6467,43 +6476,43 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="C86" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" t="s">
         <v>98</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
         <v>99</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
+        <v>93</v>
+      </c>
+      <c r="I86" t="s">
         <v>100</v>
       </c>
-      <c r="H86" t="s">
-        <v>94</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>101</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>102</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" t="s">
+        <v>25</v>
+      </c>
+      <c r="O86" t="s">
         <v>103</v>
-      </c>
-      <c r="L86" t="s">
-        <v>25</v>
-      </c>
-      <c r="M86" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" t="s">
-        <v>25</v>
-      </c>
-      <c r="O86" t="s">
-        <v>104</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>16</v>
@@ -6517,43 +6526,43 @@
         <v>0.3756944444444445</v>
       </c>
       <c r="C87" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
+        <v>199</v>
+      </c>
+      <c r="H87" t="s">
         <v>200</v>
       </c>
-      <c r="E87" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
+        <v>128</v>
+      </c>
+      <c r="J87" t="s">
         <v>201</v>
       </c>
-      <c r="H87" t="s">
+      <c r="K87" t="s">
         <v>202</v>
       </c>
-      <c r="I87" t="s">
-        <v>129</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="L87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" t="s">
+        <v>25</v>
+      </c>
+      <c r="O87" t="s">
         <v>203</v>
-      </c>
-      <c r="K87" t="s">
-        <v>204</v>
-      </c>
-      <c r="L87" t="s">
-        <v>25</v>
-      </c>
-      <c r="M87" t="s">
-        <v>25</v>
-      </c>
-      <c r="N87" t="s">
-        <v>25</v>
-      </c>
-      <c r="O87" t="s">
-        <v>205</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>16</v>
@@ -6567,10 +6576,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C88" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6617,31 +6626,31 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="C89" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" t="s">
+        <v>416</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
         <v>417</v>
       </c>
-      <c r="E89" t="s">
-        <v>418</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>419</v>
-      </c>
       <c r="H89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I89" t="s">
         <v>46</v>
       </c>
       <c r="J89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L89" t="s">
         <v>25</v>
@@ -6653,7 +6662,7 @@
         <v>25</v>
       </c>
       <c r="O89" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>16</v>
@@ -6667,43 +6676,43 @@
         <v>0.4680555555555555</v>
       </c>
       <c r="C90" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D90" t="s">
+        <v>328</v>
+      </c>
+      <c r="E90" t="s">
+        <v>329</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
         <v>330</v>
       </c>
-      <c r="E90" t="s">
-        <v>331</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>332</v>
-      </c>
       <c r="H90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I90" t="s">
         <v>61</v>
       </c>
       <c r="J90" t="s">
+        <v>331</v>
+      </c>
+      <c r="K90" t="s">
+        <v>332</v>
+      </c>
+      <c r="L90" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
+        <v>25</v>
+      </c>
+      <c r="O90" t="s">
         <v>333</v>
-      </c>
-      <c r="K90" t="s">
-        <v>334</v>
-      </c>
-      <c r="L90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O90" t="s">
-        <v>335</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>16</v>
@@ -6717,43 +6726,43 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="C91" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D91" t="s">
+        <v>265</v>
+      </c>
+      <c r="E91" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
         <v>267</v>
-      </c>
-      <c r="E91" t="s">
-        <v>268</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>269</v>
       </c>
       <c r="H91" t="s">
         <v>44</v>
       </c>
       <c r="I91" t="s">
+        <v>268</v>
+      </c>
+      <c r="J91" t="s">
+        <v>159</v>
+      </c>
+      <c r="K91" t="s">
+        <v>269</v>
+      </c>
+      <c r="L91" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" t="s">
+        <v>25</v>
+      </c>
+      <c r="O91" t="s">
         <v>270</v>
-      </c>
-      <c r="J91" t="s">
-        <v>161</v>
-      </c>
-      <c r="K91" t="s">
-        <v>271</v>
-      </c>
-      <c r="L91" t="s">
-        <v>25</v>
-      </c>
-      <c r="M91" t="s">
-        <v>25</v>
-      </c>
-      <c r="N91" t="s">
-        <v>25</v>
-      </c>
-      <c r="O91" t="s">
-        <v>272</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>16</v>
@@ -6767,43 +6776,43 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="C92" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D92" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" t="s">
         <v>124</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
         <v>125</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>126</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>127</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>128</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>129</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" t="s">
+        <v>25</v>
+      </c>
+      <c r="O92" t="s">
         <v>130</v>
-      </c>
-      <c r="L92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O92" t="s">
-        <v>131</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>16</v>
@@ -6817,31 +6826,31 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="C93" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E93" t="s">
+        <v>358</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
         <v>359</v>
       </c>
-      <c r="E93" t="s">
-        <v>360</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>361</v>
-      </c>
       <c r="H93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s">
         <v>76</v>
       </c>
       <c r="K93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L93" t="s">
         <v>25</v>
@@ -6853,7 +6862,7 @@
         <v>25</v>
       </c>
       <c r="O93" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>16</v>
@@ -6867,43 +6876,43 @@
         <v>0.65208333333333335</v>
       </c>
       <c r="C94" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D94" t="s">
+        <v>403</v>
+      </c>
+      <c r="E94" t="s">
+        <v>404</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
         <v>405</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>406</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
+        <v>332</v>
+      </c>
+      <c r="J94" t="s">
+        <v>287</v>
+      </c>
+      <c r="K94" t="s">
         <v>407</v>
       </c>
-      <c r="H94" t="s">
+      <c r="L94" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O94" t="s">
         <v>408</v>
-      </c>
-      <c r="I94" t="s">
-        <v>334</v>
-      </c>
-      <c r="J94" t="s">
-        <v>289</v>
-      </c>
-      <c r="K94" t="s">
-        <v>409</v>
-      </c>
-      <c r="L94" t="s">
-        <v>25</v>
-      </c>
-      <c r="M94" t="s">
-        <v>25</v>
-      </c>
-      <c r="N94" t="s">
-        <v>25</v>
-      </c>
-      <c r="O94" t="s">
-        <v>410</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>16</v>
@@ -6917,28 +6926,28 @@
         <v>0.58819444444444446</v>
       </c>
       <c r="C95" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D95" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
         <v>206</v>
-      </c>
-      <c r="E95" t="s">
-        <v>207</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>208</v>
       </c>
       <c r="H95" t="s">
         <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K95" t="s">
         <v>22</v>
@@ -6953,7 +6962,7 @@
         <v>25</v>
       </c>
       <c r="O95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>16</v>
@@ -6967,28 +6976,28 @@
         <v>0.5493055555555556</v>
       </c>
       <c r="C96" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D96" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
         <v>281</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>282</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>283</v>
-      </c>
-      <c r="H96" t="s">
-        <v>284</v>
-      </c>
       <c r="I96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K96" t="s">
         <v>32</v>
@@ -7003,7 +7012,7 @@
         <v>25</v>
       </c>
       <c r="O96" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P96" s="5" t="s">
         <v>16</v>
@@ -7017,7 +7026,7 @@
         <v>0.51597222222222217</v>
       </c>
       <c r="C97" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D97" t="s">
         <v>53</v>
@@ -7067,43 +7076,43 @@
         <v>0.46111111111111108</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D98" t="s">
+        <v>593</v>
+      </c>
+      <c r="E98" t="s">
+        <v>455</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>456</v>
+      </c>
+      <c r="H98" t="s">
+        <v>341</v>
+      </c>
+      <c r="I98" t="s">
+        <v>141</v>
+      </c>
+      <c r="J98" t="s">
+        <v>102</v>
+      </c>
+      <c r="K98" t="s">
+        <v>140</v>
+      </c>
+      <c r="L98" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" t="s">
+        <v>25</v>
+      </c>
+      <c r="O98" t="s">
         <v>457</v>
-      </c>
-      <c r="E98" t="s">
-        <v>458</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>459</v>
-      </c>
-      <c r="H98" t="s">
-        <v>343</v>
-      </c>
-      <c r="I98" t="s">
-        <v>143</v>
-      </c>
-      <c r="J98" t="s">
-        <v>103</v>
-      </c>
-      <c r="K98" t="s">
-        <v>142</v>
-      </c>
-      <c r="L98" t="s">
-        <v>25</v>
-      </c>
-      <c r="M98" t="s">
-        <v>25</v>
-      </c>
-      <c r="N98" t="s">
-        <v>25</v>
-      </c>
-      <c r="O98" t="s">
-        <v>460</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>16</v>
@@ -7111,37 +7120,37 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>44765</v>
+        <v>44768</v>
       </c>
       <c r="B99" s="6">
-        <v>0.36805555555555558</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C99" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D99" t="s">
-        <v>78</v>
+        <v>594</v>
       </c>
       <c r="E99" t="s">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="I99" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="J99" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="L99" t="s">
         <v>25</v>
@@ -7153,7 +7162,7 @@
         <v>25</v>
       </c>
       <c r="O99" t="s">
-        <v>84</v>
+        <v>457</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>16</v>
@@ -7161,37 +7170,37 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>44756</v>
+        <v>44765</v>
       </c>
       <c r="B100" s="6">
-        <v>0.38055555555555554</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="C100" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D100" t="s">
-        <v>489</v>
+        <v>595</v>
       </c>
       <c r="E100" t="s">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="I100" t="s">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="J100" t="s">
-        <v>492</v>
+        <v>31</v>
       </c>
       <c r="K100" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="L100" t="s">
         <v>25</v>
@@ -7203,7 +7212,7 @@
         <v>25</v>
       </c>
       <c r="O100" t="s">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="P100" s="5" t="s">
         <v>16</v>
@@ -7214,55 +7223,205 @@
         <v>44765</v>
       </c>
       <c r="B101" s="6">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C101" t="s">
+        <v>588</v>
+      </c>
+      <c r="D101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E101" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" t="s">
+        <v>82</v>
+      </c>
+      <c r="L101" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" t="s">
+        <v>25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>83</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44756</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C102" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" t="s">
+        <v>597</v>
+      </c>
+      <c r="E102" t="s">
+        <v>486</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>199</v>
+      </c>
+      <c r="H102" t="s">
+        <v>140</v>
+      </c>
+      <c r="I102" t="s">
+        <v>487</v>
+      </c>
+      <c r="J102" t="s">
+        <v>488</v>
+      </c>
+      <c r="K102" t="s">
+        <v>273</v>
+      </c>
+      <c r="L102" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" t="s">
+        <v>25</v>
+      </c>
+      <c r="O102" t="s">
+        <v>489</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44756</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C103" t="s">
+        <v>589</v>
+      </c>
+      <c r="D103" t="s">
+        <v>598</v>
+      </c>
+      <c r="E103" t="s">
+        <v>486</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
+        <v>199</v>
+      </c>
+      <c r="H103" t="s">
+        <v>140</v>
+      </c>
+      <c r="I103" t="s">
+        <v>487</v>
+      </c>
+      <c r="J103" t="s">
+        <v>488</v>
+      </c>
+      <c r="K103" t="s">
+        <v>273</v>
+      </c>
+      <c r="L103" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" t="s">
+        <v>25</v>
+      </c>
+      <c r="O103" t="s">
+        <v>489</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44765</v>
+      </c>
+      <c r="B104" s="6">
         <v>0.46388888888888885</v>
       </c>
-      <c r="C101" t="s">
-        <v>594</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C104" t="s">
+        <v>590</v>
+      </c>
+      <c r="D104" t="s">
+        <v>599</v>
+      </c>
+      <c r="E104" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
         <v>133</v>
       </c>
-      <c r="E101" t="s">
+      <c r="H104" t="s">
         <v>134</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="I104" t="s">
+        <v>69</v>
+      </c>
+      <c r="J104" t="s">
+        <v>107</v>
+      </c>
+      <c r="K104" t="s">
         <v>135</v>
       </c>
-      <c r="H101" t="s">
+      <c r="L104" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" t="s">
+        <v>25</v>
+      </c>
+      <c r="O104" t="s">
         <v>136</v>
       </c>
-      <c r="I101" t="s">
-        <v>69</v>
-      </c>
-      <c r="J101" t="s">
-        <v>108</v>
-      </c>
-      <c r="K101" t="s">
-        <v>137</v>
-      </c>
-      <c r="L101" t="s">
-        <v>25</v>
-      </c>
-      <c r="M101" t="s">
-        <v>25</v>
-      </c>
-      <c r="N101" t="s">
-        <v>25</v>
-      </c>
-      <c r="O101" t="s">
-        <v>138</v>
-      </c>
-      <c r="P101" s="5" t="s">
+      <c r="P104" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D101" xr:uid="{6BE6C96F-2AF5-ED4F-A503-ABE4C972F69C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P101">
-    <sortCondition ref="D2:D101"/>
+  <autoFilter ref="D1:D104" xr:uid="{6BE6C96F-2AF5-ED4F-A503-ABE4C972F69C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P104">
+    <sortCondition ref="D2:D104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
